--- a/spliced/struggle/2023-03-25_18-15-46/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-46/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.114709377288818</v>
+        <v>14.36146354675293</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.455168724060059</v>
+        <v>-2.813630223274229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8483291864395142</v>
+        <v>2.31547799706459</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0645989999175071</v>
+        <v>1.700343370437622</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1014036312699318</v>
+        <v>-1.53525710105896</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0325285755097866</v>
+        <v>1.785559058189392</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.951430380344392</v>
+        <v>7.119595527648926</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.366402566432953</v>
+        <v>-10.00965690612793</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05824550986290022</v>
+        <v>2.071655035018921</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-1.893071413040161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4514294266700744</v>
+        <v>-7.137654781341553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2185370475053787</v>
+        <v>6.563594341278076</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.621240258216858</v>
+        <v>-0.3092890381813076</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.812355875968931</v>
+        <v>-7.561092853546142</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.674638897180556</v>
+        <v>3.192377448081971</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8515461683273315</v>
+        <v>-0.171042263507843</v>
       </c>
       <c r="G4" t="n">
-        <v>3.586237192153931</v>
+        <v>-0.6296493411064148</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0175623763352632</v>
+        <v>0.4955644309520721</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.4384793639183036</v>
+        <v>-0.1974980831146222</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.088106513023378</v>
+        <v>-4.94487106800079</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6269187033176431</v>
+        <v>4.721822917461397</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.076178312301636</v>
+        <v>-0.4091269969940185</v>
       </c>
       <c r="G5" t="n">
-        <v>1.494481801986694</v>
+        <v>-1.411251425743103</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.400255799293518</v>
+        <v>1.499826908111572</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.520418167114265</v>
+        <v>-2.194161117076871</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.16901969909668</v>
+        <v>-4.593446969985962</v>
       </c>
       <c r="E6" t="n">
-        <v>5.744026303291324</v>
+        <v>3.157028853893282</v>
       </c>
       <c r="F6" t="n">
-        <v>1.21974515914917</v>
+        <v>0.5923865437507629</v>
       </c>
       <c r="G6" t="n">
-        <v>1.048092007637024</v>
+        <v>-0.901637077331543</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.542726516723633</v>
+        <v>0.6020076870918274</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.395012557506554</v>
+        <v>-0.8586132526397767</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.392867326736445</v>
+        <v>-10.09085631370543</v>
       </c>
       <c r="E7" t="n">
-        <v>8.651888370513916</v>
+        <v>-3.983258485794054</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3668245673179626</v>
+        <v>4.378682136535645</v>
       </c>
       <c r="G7" t="n">
-        <v>1.540907621383667</v>
+        <v>-3.456580877304077</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2811507284641266</v>
+        <v>2.736981630325317</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.336565375328052</v>
+        <v>2.208070576190949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02383470535278576</v>
+        <v>-11.74357312917708</v>
       </c>
       <c r="E8" t="n">
-        <v>8.412825703620918</v>
+        <v>-5.92425370216368</v>
       </c>
       <c r="F8" t="n">
-        <v>0.093156948685646</v>
+        <v>-1.802816033363343</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.188896536827087</v>
+        <v>0.8972083330154419</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3588833212852478</v>
+        <v>0.8159632682800293</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.36146354675293</v>
+        <v>0.8976666927337558</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.813630223274229</v>
+        <v>-6.909027695655827</v>
       </c>
       <c r="E9" t="n">
-        <v>2.31547799706459</v>
+        <v>1.685739278793339</v>
       </c>
       <c r="F9" t="n">
-        <v>1.700343370437622</v>
+        <v>-1.785711884498596</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.53525710105896</v>
+        <v>2.000431060791016</v>
       </c>
       <c r="H9" t="n">
-        <v>1.785559058189392</v>
+        <v>-1.260367751121521</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.119595527648926</v>
+        <v>-3.808973312377933</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.00965690612793</v>
+        <v>-9.732912957668304</v>
       </c>
       <c r="E10" t="n">
-        <v>2.071655035018921</v>
+        <v>4.339319378137589</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.893071413040161</v>
+        <v>-1.425454020500183</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.137654781341553</v>
+        <v>2.0323486328125</v>
       </c>
       <c r="H10" t="n">
-        <v>6.563594341278076</v>
+        <v>-2.473546028137207</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.3092890381813076</v>
+        <v>1.211441993713379</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.561092853546142</v>
+        <v>-4.946407794952393</v>
       </c>
       <c r="E11" t="n">
-        <v>3.192377448081971</v>
+        <v>2.633680582046509</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.171042263507843</v>
+        <v>-0.1524108797311782</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6296493411064148</v>
+        <v>-0.5303837656974792</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4955644309520721</v>
+        <v>-1.655902981758118</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1974980831146222</v>
+        <v>-1.650709629058838</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.94487106800079</v>
+        <v>-4.344925820827484</v>
       </c>
       <c r="E12" t="n">
-        <v>4.721822917461397</v>
+        <v>4.874097138643265</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4091269969940185</v>
+        <v>0.9138544201850892</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.411251425743103</v>
+        <v>0.08445212244987479</v>
       </c>
       <c r="H12" t="n">
-        <v>1.499826908111572</v>
+        <v>-1.289994716644287</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.194161117076871</v>
+        <v>-3.371967196464541</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.593446969985962</v>
+        <v>-3.051161766052245</v>
       </c>
       <c r="E13" t="n">
-        <v>3.157028853893282</v>
+        <v>5.898134231567384</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5923865437507629</v>
+        <v>-0.2788599729537964</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.901637077331543</v>
+        <v>0.1840231567621231</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6020076870918274</v>
+        <v>-1.028238892555237</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.8586132526397767</v>
+        <v>-2.243164837360378</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.09085631370543</v>
+        <v>-0.9728509187698318</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.983258485794054</v>
+        <v>7.228664159774784</v>
       </c>
       <c r="F14" t="n">
-        <v>4.378682136535645</v>
+        <v>0.3350595831871032</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.456580877304077</v>
+        <v>1.075122833251953</v>
       </c>
       <c r="H14" t="n">
-        <v>2.736981630325317</v>
+        <v>1.244179844856262</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.208070576190949</v>
+        <v>1.634144544601426</v>
       </c>
       <c r="D15" t="n">
-        <v>-11.74357312917708</v>
+        <v>-3.087035417556748</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.92425370216368</v>
+        <v>5.197757840156568</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.802816033363343</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8972083330154419</v>
+        <v>4.903262615203857</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8159632682800293</v>
+        <v>-0.6261368989944458</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8976666927337558</v>
+        <v>0.4866030216217228</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.909027695655827</v>
+        <v>-5.888972640037538</v>
       </c>
       <c r="E16" t="n">
-        <v>1.685739278793339</v>
+        <v>5.150876790285098</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.785711884498596</v>
+        <v>-2.083661317825317</v>
       </c>
       <c r="G16" t="n">
-        <v>2.000431060791016</v>
+        <v>-0.8663596510887146</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.260367751121521</v>
+        <v>-1.775479793548584</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.808973312377933</v>
+        <v>-3.873410999774934</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.732912957668304</v>
+        <v>2.929124236106873</v>
       </c>
       <c r="E17" t="n">
-        <v>4.339319378137589</v>
+        <v>4.643965721130372</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.425454020500183</v>
+        <v>-4.610199928283691</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0323486328125</v>
+        <v>3.776979923248291</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.473546028137207</v>
+        <v>-1.897194743156433</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.211441993713379</v>
+        <v>3.477634161710739</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.946407794952393</v>
+        <v>24.22354996204378</v>
       </c>
       <c r="E18" t="n">
-        <v>2.633680582046509</v>
+        <v>-8.259647905826574</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1524108797311782</v>
+        <v>0.9382890462875366</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5303837656974792</v>
+        <v>0.2889392673969269</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.655902981758118</v>
+        <v>0.8718574047088623</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.650709629058838</v>
+        <v>3.516963958740234</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.344925820827484</v>
+        <v>-0.7771883010864258</v>
       </c>
       <c r="E19" t="n">
-        <v>4.874097138643265</v>
+        <v>4.514358997344971</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9138544201850892</v>
+        <v>0.5700899958610535</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08445212244987479</v>
+        <v>-1.021672129631042</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.289994716644287</v>
+        <v>0.4189008474349975</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.371967196464541</v>
+        <v>-0.7894209027290375</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.051161766052245</v>
+        <v>0.4619972705841073</v>
       </c>
       <c r="E20" t="n">
-        <v>5.898134231567384</v>
+        <v>8.847737967967991</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2788599729537964</v>
+        <v>0.1930334120988845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1840231567621231</v>
+        <v>-0.1259909570217132</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.028238892555237</v>
+        <v>2.802496910095215</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2.243164837360378</v>
+        <v>-0.04974877834320068</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.9728509187698318</v>
+        <v>-2.565077662467957</v>
       </c>
       <c r="E21" t="n">
-        <v>7.228664159774784</v>
+        <v>6.396960973739624</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3350595831871032</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="G21" t="n">
-        <v>1.075122833251953</v>
+        <v>-2.771648406982422</v>
       </c>
       <c r="H21" t="n">
-        <v>1.244179844856262</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.634144544601426</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.087035417556748</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.197757840156568</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.2061670273542404</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.903262615203857</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.6261368989944458</v>
+        <v>3.70489764213562</v>
       </c>
     </row>
   </sheetData>
